--- a/nr-mv-MS/ig/StructureDefinition-as-healthcareservice-healthcare-activity.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-healthcareservice-healthcare-activity.xlsx
@@ -9,9 +9,6 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$91</definedName>
-  </definedNames>
 </workbook>
 </file>
 
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:08:34+00:00</t>
+    <t>2025-10-08T14:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1659,21 +1656,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -2014,7 +1996,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -2120,7 +2102,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>83</v>
       </c>
@@ -2228,7 +2210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>91</v>
       </c>
@@ -2334,7 +2316,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>97</v>
       </c>
@@ -2440,7 +2422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>103</v>
       </c>
@@ -2569,7 +2551,7 @@
         <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>75</v>
@@ -2656,7 +2638,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>119</v>
       </c>
@@ -2762,7 +2744,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>121</v>
       </c>
@@ -2870,7 +2852,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>123</v>
       </c>
@@ -2978,7 +2960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>127</v>
       </c>
@@ -3084,7 +3066,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>129</v>
       </c>
@@ -3190,7 +3172,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>132</v>
       </c>
@@ -3298,7 +3280,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>140</v>
       </c>
@@ -3402,7 +3384,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>148</v>
       </c>
@@ -3510,7 +3492,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>151</v>
       </c>
@@ -3616,7 +3598,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>152</v>
       </c>
@@ -3722,7 +3704,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>153</v>
       </c>
@@ -3830,7 +3812,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>154</v>
       </c>
@@ -3955,7 +3937,7 @@
         <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>75</v>
@@ -4042,7 +4024,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>162</v>
       </c>
@@ -4148,7 +4130,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>163</v>
       </c>
@@ -4254,7 +4236,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>164</v>
       </c>
@@ -4362,7 +4344,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>165</v>
       </c>
@@ -4468,7 +4450,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>167</v>
       </c>
@@ -4576,7 +4558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>170</v>
       </c>
@@ -4682,7 +4664,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>173</v>
       </c>
@@ -4790,7 +4772,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>178</v>
       </c>
@@ -4898,7 +4880,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>184</v>
       </c>
@@ -5006,7 +4988,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>189</v>
       </c>
@@ -5114,7 +5096,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>195</v>
       </c>
@@ -5222,7 +5204,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>203</v>
       </c>
@@ -5330,7 +5312,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
         <v>211</v>
       </c>
@@ -5438,7 +5420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>216</v>
       </c>
@@ -5546,7 +5528,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>224</v>
       </c>
@@ -5654,7 +5636,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>232</v>
       </c>
@@ -5762,7 +5744,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>239</v>
       </c>
@@ -5887,7 +5869,7 @@
         <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>75</v>
@@ -5974,7 +5956,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
         <v>247</v>
       </c>
@@ -6084,7 +6066,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>252</v>
       </c>
@@ -6211,7 +6193,7 @@
         <v>84</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>75</v>
@@ -6298,7 +6280,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
         <v>263</v>
       </c>
@@ -6404,7 +6386,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>265</v>
       </c>
@@ -6512,7 +6494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
         <v>267</v>
       </c>
@@ -6622,7 +6604,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>277</v>
       </c>
@@ -6732,7 +6714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
         <v>286</v>
       </c>
@@ -6842,7 +6824,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
         <v>296</v>
       </c>
@@ -6950,7 +6932,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>304</v>
       </c>
@@ -7056,7 +7038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
         <v>311</v>
       </c>
@@ -7164,7 +7146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
         <v>319</v>
       </c>
@@ -7293,7 +7275,7 @@
         <v>84</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>75</v>
@@ -7401,7 +7383,7 @@
         <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>75</v>
@@ -7488,7 +7470,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>341</v>
       </c>
@@ -7592,7 +7574,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>349</v>
       </c>
@@ -7698,7 +7680,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>353</v>
       </c>
@@ -7823,7 +7805,7 @@
         <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>75</v>
@@ -7908,7 +7890,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>360</v>
       </c>
@@ -8014,7 +7996,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>366</v>
       </c>
@@ -8120,7 +8102,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>370</v>
       </c>
@@ -8228,7 +8210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>375</v>
       </c>
@@ -8334,7 +8316,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>380</v>
       </c>
@@ -8440,7 +8422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>385</v>
       </c>
@@ -8548,7 +8530,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>391</v>
       </c>
@@ -8656,7 +8638,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
         <v>396</v>
       </c>
@@ -8764,7 +8746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>402</v>
       </c>
@@ -8870,7 +8852,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
         <v>406</v>
       </c>
@@ -8976,7 +8958,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>407</v>
       </c>
@@ -9084,7 +9066,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>408</v>
       </c>
@@ -9194,7 +9176,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>413</v>
       </c>
@@ -9300,7 +9282,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
         <v>417</v>
       </c>
@@ -9408,7 +9390,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>422</v>
       </c>
@@ -9535,7 +9517,7 @@
         <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>75</v>
@@ -9622,7 +9604,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>434</v>
       </c>
@@ -9730,7 +9712,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>438</v>
       </c>
@@ -9836,7 +9818,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
         <v>443</v>
       </c>
@@ -9942,7 +9924,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>446</v>
       </c>
@@ -10050,7 +10032,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>451</v>
       </c>
@@ -10156,7 +10138,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>452</v>
       </c>
@@ -10264,7 +10246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
         <v>453</v>
       </c>
@@ -10374,7 +10356,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>454</v>
       </c>
@@ -10480,7 +10462,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>459</v>
       </c>
@@ -10586,7 +10568,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
         <v>462</v>
       </c>
@@ -10694,7 +10676,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>467</v>
       </c>
@@ -10802,7 +10784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>470</v>
       </c>
@@ -10908,7 +10890,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>473</v>
       </c>
@@ -11014,7 +10996,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>474</v>
       </c>
@@ -11122,7 +11104,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>475</v>
       </c>
@@ -11232,7 +11214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>476</v>
       </c>
@@ -11338,7 +11320,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>479</v>
       </c>
@@ -11444,7 +11426,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
         <v>482</v>
       </c>
@@ -11550,7 +11532,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
         <v>485</v>
       </c>
@@ -11657,24 +11639,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL91">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="27">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/nr-mv-MS/ig/StructureDefinition-as-healthcareservice-healthcare-activity.xlsx
+++ b/nr-mv-MS/ig/StructureDefinition-as-healthcareservice-healthcare-activity.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3096" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="399">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:26:13+00:00</t>
+    <t>2025-10-08T14:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -311,7 +311,214 @@
 </t>
   </si>
   <si>
-    <t>HealthcareService.meta.id</t>
+    <t>HealthcareService.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>HealthcareService.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>HealthcareService.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>HealthcareService.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>HealthcareService.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>HealthcareService.extension:as-ext-authorization</t>
+  </si>
+  <si>
+    <t>as-ext-authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-authorization}
+</t>
+  </si>
+  <si>
+    <t>AS Authorization Extension</t>
+  </si>
+  <si>
+    <t>Extension créée dans le cadre de l'Annuaire Santé pour décrire les autorisations des activités (HealthcareService) sanitaires, sociales, médico-sociales et d'enseignement et des équipements matériels (Device) lourds autorisés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>HealthcareService.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>External identifiers for this item</t>
+  </si>
+  <si>
+    <t>External identifiers for this item.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the identifier.system value</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier:numAutorisationArhgos</t>
+  </si>
+  <si>
+    <t>numAutorisationArhgos</t>
+  </si>
+  <si>
+    <t>Identifiant fonctionnel, numéro d'autorisation ARHGOS (numeroAutorisationARHGOS).</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier:numAutorisationArhgos.id</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -330,15 +537,10 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>HealthcareService.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
+    <t>HealthcareService.identifier:numAutorisationArhgos.extension</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier.extension</t>
   </si>
   <si>
     <t>Additional content defined by implementations</t>
@@ -347,550 +549,68 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace</t>
-  </si>
-  <si>
-    <t>as-ext-data-trace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace}
-</t>
-  </si>
-  <si>
-    <t>DataTrace : Informe sur l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI).</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour tracer l'origine de la donnée (Autorité d'Enregistrement (AE) et Système d'Information (SI)). Des études complémentaires vont être initiées pour envisager l'usage de la ressource Provenance ou meta.source.</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:autorite-enregistrement</t>
-  </si>
-  <si>
-    <t>autorite-enregistrement</t>
-  </si>
-  <si>
-    <t>Autorité d'enregistrement de la ressource.</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:autorite-enregistrement.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension.extension.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:autorite-enregistrement.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:autorite-enregistrement.url</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension.extension.url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:autorite-enregistrement.value[x]</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension.extension.value[x]</t>
+    <t>HealthcareService.identifier:numAutorisationArhgos.use</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier:numAutorisationArhgos.type</t>
+  </si>
+  <si>
+    <t>HealthcareService.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J83-AutoriteEnregistrement-RASS/FHIR/JDV-J83-AutoriteEnregistrement-RASS</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:systeme-information</t>
-  </si>
-  <si>
-    <t>systeme-information</t>
-  </si>
-  <si>
-    <t>Système d'information de la ressource.</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:systeme-information.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:systeme-information.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:systeme-information.url</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:systeme-information.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>RPPS | FINESS | MSS | CG</t>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/ValueSet/as-vs-type-systeme-information</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:date-maj-ae</t>
-  </si>
-  <si>
-    <t>date-maj-ae</t>
-  </si>
-  <si>
-    <t>Date maj de l'activité selon l'autorité d'enregistrement</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:date-maj-ae.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:date-maj-ae.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:date-maj-ae.url</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.extension:date-maj-ae.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.url</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension.url</t>
-  </si>
-  <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-data-trace</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension:as-ext-data-trace.value[x]</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.source</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>HealthcareService.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>HealthcareService.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>HealthcareService.language</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>HealthcareService.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>HealthcareService.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.extension:as-ext-authorization</t>
-  </si>
-  <si>
-    <t>as-ext-authorization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-ext-authorization}
-</t>
-  </si>
-  <si>
-    <t>AS Authorization Extension</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre de l'Annuaire Santé pour décrire les autorisations des activités (HealthcareService) sanitaires, sociales, médico-sociales et d'enseignement et des équipements matériels (Device) lourds autorisés.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>HealthcareService.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External identifiers for this item</t>
-  </si>
-  <si>
-    <t>External identifiers for this item.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the identifier.system value</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier:numAutorisationArhgos</t>
-  </si>
-  <si>
-    <t>numAutorisationArhgos</t>
-  </si>
-  <si>
-    <t>Identifiant fonctionnel, numéro d'autorisation ARHGOS (numeroAutorisationARHGOS).</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier:numAutorisationArhgos.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.id</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier:numAutorisationArhgos.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.extension</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier:numAutorisationArhgos.use</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier:numAutorisationArhgos.type</t>
-  </si>
-  <si>
-    <t>HealthcareService.identifier.type</t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
@@ -1083,6 +803,9 @@
   </si>
   <si>
     <t>The specific type of service that may be delivered or performed.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Additional details about where the content was created (e.g. clinical specialty).</t>
@@ -1832,7 +1555,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL91"/>
+  <dimension ref="A1:AL63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1841,9 +1564,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="78.046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="50.12109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.4375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1851,7 +1574,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="125.07421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1865,7 +1588,7 @@
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="109.37890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
@@ -2338,10 +2061,10 @@
         <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>98</v>
@@ -2352,7 +2075,9 @@
       <c r="M5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="N5" s="2"/>
+      <c r="N5" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
         <v>75</v>
@@ -2401,7 +2126,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -2413,10 +2138,10 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>75</v>
@@ -2431,14 +2156,14 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -2450,16 +2175,16 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2485,46 +2210,46 @@
         <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AF6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>75</v>
@@ -2532,16 +2257,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2560,15 +2283,17 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
         <v>75</v>
@@ -2617,22 +2342,22 @@
         <v>75</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>75</v>
@@ -2640,21 +2365,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>120</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
@@ -2666,15 +2391,17 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>125</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>75</v>
@@ -2723,13 +2450,13 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>75</v>
@@ -2738,7 +2465,7 @@
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>75</v>
@@ -2746,14 +2473,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2772,17 +2499,15 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>75</v>
@@ -2819,19 +2544,17 @@
         <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>110</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -2843,10 +2566,10 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>75</v>
@@ -2854,13 +2577,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>75</v>
@@ -2870,7 +2593,7 @@
         <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>75</v>
@@ -2882,13 +2605,13 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2939,7 +2662,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -2948,10 +2671,10 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -2962,42 +2685,46 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P11" t="s" s="2">
         <v>75</v>
       </c>
@@ -3045,22 +2772,22 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>75</v>
@@ -3068,10 +2795,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3082,7 +2809,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>75</v>
@@ -3091,16 +2818,16 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3139,19 +2866,19 @@
         <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3163,29 +2890,31 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>84</v>
@@ -3197,27 +2926,25 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>75</v>
@@ -3259,33 +2986,33 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>75</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3308,13 +3035,13 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3341,11 +3068,13 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
@@ -3363,7 +3092,7 @@
         <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3375,10 +3104,10 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>75</v>
@@ -3386,23 +3115,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -3414,15 +3141,17 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>75</v>
@@ -3459,19 +3188,19 @@
         <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3483,10 +3212,10 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>75</v>
@@ -3494,10 +3223,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3514,22 +3243,26 @@
         <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>75</v>
       </c>
@@ -3553,13 +3286,13 @@
         <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>180</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>75</v>
@@ -3577,7 +3310,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -3589,10 +3322,10 @@
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>75</v>
@@ -3600,10 +3333,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3614,7 +3347,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -3623,19 +3356,23 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
@@ -3659,46 +3396,46 @@
         <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>191</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -3706,10 +3443,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3729,33 +3466,35 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>134</v>
+        <v>98</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>136</v>
+        <v>198</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>202</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>75</v>
@@ -3791,10 +3530,10 @@
         <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>84</v>
@@ -3803,10 +3542,10 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3814,10 +3553,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3837,18 +3576,20 @@
         <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
@@ -3861,7 +3602,7 @@
         <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>75</v>
@@ -3873,11 +3614,13 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -3895,7 +3638,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>147</v>
+        <v>211</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -3910,7 +3653,7 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3918,14 +3661,12 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>75</v>
       </c>
@@ -3943,16 +3684,16 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>105</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>126</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4003,22 +3744,22 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -4026,10 +3767,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>128</v>
+        <v>221</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4049,18 +3790,20 @@
         <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -4109,7 +3852,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>101</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4121,10 +3864,10 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>75</v>
@@ -4132,10 +3875,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4146,32 +3889,36 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="R22" t="s" s="2">
         <v>75</v>
       </c>
@@ -4203,45 +3950,45 @@
         <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>75</v>
+        <v>234</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>75</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4249,7 +3996,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>84</v>
@@ -4261,19 +4008,19 @@
         <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4281,7 +4028,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>75</v>
@@ -4323,10 +4070,10 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>84</v>
@@ -4335,10 +4082,10 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>139</v>
+        <v>241</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -4346,21 +4093,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>165</v>
+        <v>242</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -4369,18 +4116,20 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -4405,13 +4154,11 @@
         <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>75</v>
@@ -4429,13 +4176,13 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
@@ -4444,29 +4191,29 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>75</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>168</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>75</v>
@@ -4475,27 +4222,25 @@
         <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>75</v>
@@ -4513,46 +4258,44 @@
         <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4560,21 +4303,23 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="D26" t="s" s="2">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>75</v>
@@ -4583,16 +4328,16 @@
         <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>144</v>
+        <v>253</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4619,13 +4364,11 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>75</v>
+        <v>262</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4643,13 +4386,13 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>75</v>
@@ -4658,7 +4401,7 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>75</v>
@@ -4666,14 +4409,16 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>173</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="D27" t="s" s="2">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4692,17 +4437,15 @@
         <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>86</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>174</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
@@ -4727,13 +4470,11 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4751,13 +4492,13 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>177</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
@@ -4766,7 +4507,7 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>75</v>
@@ -4774,10 +4515,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>178</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4788,7 +4529,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4800,17 +4541,15 @@
         <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>180</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -4835,13 +4574,11 @@
         <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>75</v>
+        <v>266</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>75</v>
@@ -4859,13 +4596,13 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>183</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
@@ -4874,7 +4611,7 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4882,10 +4619,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4896,7 +4633,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
@@ -4908,17 +4645,15 @@
         <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>134</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>185</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
@@ -4967,13 +4702,13 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>188</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>75</v>
@@ -4982,18 +4717,18 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>75</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>75</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>189</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5004,7 +4739,7 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>75</v>
@@ -5016,17 +4751,15 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -5075,13 +4808,13 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>75</v>
@@ -5090,7 +4823,7 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>75</v>
+        <v>279</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>75</v>
@@ -5098,10 +4831,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>195</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>195</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5112,7 +4845,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>75</v>
@@ -5124,16 +4857,16 @@
         <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>197</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5159,13 +4892,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -5183,13 +4916,13 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>75</v>
@@ -5198,7 +4931,7 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -5206,10 +4939,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>203</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5220,7 +4953,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -5229,20 +4962,18 @@
         <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>196</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -5267,13 +4998,13 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>208</v>
+        <v>75</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>209</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -5291,13 +5022,13 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>75</v>
@@ -5306,7 +5037,7 @@
         <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>75</v>
@@ -5314,10 +5045,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>211</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5334,23 +5065,21 @@
         <v>75</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>134</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -5399,7 +5128,7 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -5414,7 +5143,7 @@
         <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>75</v>
@@ -5422,10 +5151,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>216</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5436,7 +5165,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
@@ -5448,16 +5177,16 @@
         <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>155</v>
+        <v>296</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5483,13 +5212,13 @@
         <v>75</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>220</v>
+        <v>75</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>221</v>
+        <v>75</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>222</v>
+        <v>75</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>75</v>
@@ -5507,13 +5236,13 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
@@ -5522,7 +5251,7 @@
         <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>75</v>
+        <v>300</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5530,21 +5259,21 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5556,16 +5285,16 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>227</v>
+        <v>302</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>228</v>
+        <v>303</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>229</v>
+        <v>304</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5615,13 +5344,13 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
@@ -5630,7 +5359,7 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5638,14 +5367,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5664,16 +5393,16 @@
         <v>75</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5699,13 +5428,13 @@
         <v>75</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>75</v>
+        <v>308</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>75</v>
+        <v>310</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>75</v>
@@ -5723,7 +5452,7 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -5735,10 +5464,10 @@
         <v>75</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>139</v>
+        <v>311</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5746,10 +5475,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5772,13 +5501,13 @@
         <v>75</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>131</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>126</v>
+        <v>315</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5817,17 +5546,19 @@
         <v>75</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>240</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5839,7 +5570,7 @@
         <v>75</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>75</v>
@@ -5850,14 +5581,12 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>241</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>75</v>
       </c>
@@ -5866,7 +5595,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5878,13 +5607,13 @@
         <v>75</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>243</v>
+        <v>162</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5935,22 +5664,22 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>75</v>
@@ -5958,14 +5687,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -5978,26 +5707,24 @@
         <v>75</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
       </c>
@@ -6045,7 +5772,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6057,10 +5784,10 @@
         <v>75</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -6068,14 +5795,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6088,22 +5815,26 @@
         <v>75</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>253</v>
+        <v>129</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -6139,19 +5870,19 @@
         <v>75</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>256</v>
+        <v>75</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>257</v>
+        <v>75</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6163,25 +5894,23 @@
         <v>75</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>258</v>
+        <v>127</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>75</v>
       </c>
@@ -6199,16 +5928,16 @@
         <v>75</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>262</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>255</v>
+        <v>325</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6235,10 +5964,10 @@
         <v>75</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>75</v>
+        <v>326</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>75</v>
@@ -6259,13 +5988,13 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>75</v>
@@ -6274,18 +6003,18 @@
         <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6308,15 +6037,17 @@
         <v>75</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>98</v>
+        <v>286</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>99</v>
+        <v>328</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -6365,7 +6096,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6377,10 +6108,10 @@
         <v>75</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>102</v>
+        <v>331</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>75</v>
@@ -6388,14 +6119,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>266</v>
+        <v>332</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6414,16 +6145,16 @@
         <v>75</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>106</v>
+        <v>333</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>107</v>
+        <v>334</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>108</v>
+        <v>335</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6449,31 +6180,31 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>75</v>
+        <v>336</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>75</v>
+        <v>337</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>112</v>
+        <v>332</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -6485,10 +6216,10 @@
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>102</v>
+        <v>338</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6496,10 +6227,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>267</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6510,32 +6241,30 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>269</v>
+        <v>340</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>270</v>
+        <v>341</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
       </c>
@@ -6559,13 +6288,11 @@
         <v>75</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>274</v>
+        <v>343</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -6583,13 +6310,13 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
@@ -6598,7 +6325,7 @@
         <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>276</v>
+        <v>338</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6606,10 +6333,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>277</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6620,7 +6347,7 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>75</v>
@@ -6629,23 +6356,21 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>279</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>280</v>
+        <v>346</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6669,13 +6394,13 @@
         <v>75</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>283</v>
+        <v>109</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>284</v>
+        <v>110</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>75</v>
@@ -6693,13 +6418,13 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>285</v>
+        <v>344</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>75</v>
@@ -6708,7 +6433,7 @@
         <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>276</v>
+        <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6716,10 +6441,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>286</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>287</v>
+        <v>348</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6727,10 +6452,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6739,23 +6464,19 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>75</v>
       </c>
@@ -6764,10 +6485,10 @@
         <v>75</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>292</v>
+        <v>75</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>75</v>
@@ -6779,13 +6500,13 @@
         <v>75</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>75</v>
+        <v>351</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>75</v>
@@ -6803,13 +6524,13 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
@@ -6818,7 +6539,7 @@
         <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6826,10 +6547,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>297</v>
+        <v>353</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6849,20 +6570,18 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>298</v>
+        <v>354</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>75</v>
@@ -6875,7 +6594,7 @@
         <v>75</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>301</v>
+        <v>75</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>75</v>
@@ -6911,7 +6630,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6926,7 +6645,7 @@
         <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6934,10 +6653,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6948,7 +6667,7 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -6957,18 +6676,20 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>307</v>
+        <v>357</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -7017,13 +6738,13 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>309</v>
+        <v>356</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>75</v>
@@ -7032,7 +6753,7 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -7040,10 +6761,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>311</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>312</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7063,20 +6784,18 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>313</v>
+        <v>162</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>314</v>
+        <v>163</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
@@ -7125,7 +6844,7 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>317</v>
+        <v>165</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7137,10 +6856,10 @@
         <v>75</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>75</v>
@@ -7148,50 +6867,48 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>320</v>
+        <v>129</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>321</v>
+        <v>169</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>322</v>
+        <v>170</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>323</v>
+        <v>146</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Q50" t="s" s="2">
-        <v>324</v>
-      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
         <v>75</v>
       </c>
@@ -7235,67 +6952,69 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>319</v>
+        <v>172</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>325</v>
+        <v>166</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>328</v>
+        <v>129</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>75</v>
       </c>
@@ -7343,22 +7062,22 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>332</v>
+        <v>127</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>75</v>
@@ -7366,14 +7085,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>334</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7389,20 +7108,18 @@
         <v>75</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -7427,11 +7144,13 @@
         <v>75</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y52" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="Z52" t="s" s="2">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>75</v>
@@ -7449,7 +7168,7 @@
         <v>75</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7464,29 +7183,29 @@
         <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>340</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>342</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>75</v>
@@ -7495,16 +7214,16 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7531,35 +7250,37 @@
         <v>75</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>207</v>
+        <v>75</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>345</v>
+        <v>75</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>346</v>
+        <v>75</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>75</v>
@@ -7568,7 +7289,7 @@
         <v>96</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>75</v>
@@ -7576,16 +7297,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>342</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7601,18 +7320,20 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>142</v>
+        <v>373</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
@@ -7637,11 +7358,13 @@
         <v>75</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y54" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z54" t="s" s="2">
-        <v>352</v>
+        <v>75</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>75</v>
@@ -7659,13 +7382,13 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>75</v>
@@ -7674,7 +7397,7 @@
         <v>96</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>75</v>
@@ -7682,16 +7405,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>342</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7707,18 +7428,20 @@
         <v>75</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>142</v>
+        <v>373</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
@@ -7743,11 +7466,13 @@
         <v>75</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>356</v>
+        <v>75</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>75</v>
@@ -7765,13 +7490,13 @@
         <v>75</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>75</v>
@@ -7780,7 +7505,7 @@
         <v>96</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>75</v>
@@ -7788,10 +7513,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7811,16 +7536,16 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>142</v>
+        <v>313</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7847,11 +7572,13 @@
         <v>75</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y56" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z56" t="s" s="2">
-        <v>356</v>
+        <v>75</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>75</v>
@@ -7869,7 +7596,7 @@
         <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -7884,7 +7611,7 @@
         <v>96</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>75</v>
@@ -7892,10 +7619,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7906,7 +7633,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>75</v>
@@ -7915,16 +7642,16 @@
         <v>75</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>361</v>
+        <v>162</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>362</v>
+        <v>163</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>363</v>
+        <v>164</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7975,44 +7702,44 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>360</v>
+        <v>165</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>364</v>
+        <v>166</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>365</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>75</v>
@@ -8021,18 +7748,20 @@
         <v>75</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>367</v>
+        <v>169</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>75</v>
@@ -8081,22 +7810,22 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>366</v>
+        <v>172</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>369</v>
+        <v>166</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>75</v>
@@ -8104,44 +7833,46 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>371</v>
+        <v>320</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>75</v>
       </c>
@@ -8189,22 +7920,22 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>374</v>
+        <v>127</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>75</v>
@@ -8212,10 +7943,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8223,7 +7954,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>84</v>
@@ -8238,13 +7969,13 @@
         <v>75</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>376</v>
+        <v>162</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8295,10 +8026,10 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>84</v>
@@ -8310,7 +8041,7 @@
         <v>96</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>379</v>
+        <v>166</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>75</v>
@@ -8318,10 +8049,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8341,16 +8072,16 @@
         <v>75</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>381</v>
+        <v>215</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8401,7 +8132,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -8416,7 +8147,7 @@
         <v>96</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>75</v>
@@ -8424,10 +8155,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8438,7 +8169,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>75</v>
@@ -8450,17 +8181,15 @@
         <v>75</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>386</v>
+        <v>162</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -8509,13 +8238,13 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>75</v>
@@ -8524,7 +8253,7 @@
         <v>96</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>390</v>
+        <v>360</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>75</v>
@@ -8532,10 +8261,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8558,17 +8287,15 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
@@ -8617,7 +8344,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -8632,3009 +8359,9 @@
         <v>96</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>395</v>
+        <v>166</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y72" s="2"/>
-      <c r="Z72" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O78" s="2"/>
-      <c r="P78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O86" s="2"/>
-      <c r="P86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="P87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL91" t="s" s="2">
         <v>75</v>
       </c>
     </row>
